--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H2">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I2">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J2">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.73267682549077</v>
+        <v>3.888768333333333</v>
       </c>
       <c r="N2">
-        <v>3.73267682549077</v>
+        <v>11.666305</v>
       </c>
       <c r="O2">
-        <v>0.3567715616630545</v>
+        <v>0.2727944290034114</v>
       </c>
       <c r="P2">
-        <v>0.3567715616630545</v>
+        <v>0.2727944290034114</v>
       </c>
       <c r="Q2">
-        <v>39.17698772344387</v>
+        <v>3.402822657375556</v>
       </c>
       <c r="R2">
-        <v>39.17698772344387</v>
+        <v>30.62540391638</v>
       </c>
       <c r="S2">
-        <v>0.2448623288275391</v>
+        <v>0.01446917708744023</v>
       </c>
       <c r="T2">
-        <v>0.2448623288275391</v>
+        <v>0.01446917708744023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H3">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I3">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J3">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.02492639191514</v>
+        <v>7.624472</v>
       </c>
       <c r="N3">
-        <v>4.02492639191514</v>
+        <v>22.873416</v>
       </c>
       <c r="O3">
-        <v>0.3847049561365672</v>
+        <v>0.5348514767167063</v>
       </c>
       <c r="P3">
-        <v>0.3847049561365672</v>
+        <v>0.5348514767167063</v>
       </c>
       <c r="Q3">
-        <v>42.24434613974179</v>
+        <v>6.671707812917334</v>
       </c>
       <c r="R3">
-        <v>42.24434613974179</v>
+        <v>60.045370316256</v>
       </c>
       <c r="S3">
-        <v>0.2640338008780564</v>
+        <v>0.02836883715098215</v>
       </c>
       <c r="T3">
-        <v>0.2640338008780564</v>
+        <v>0.02836883715098215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H4">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I4">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J4">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.70476886205938</v>
+        <v>2.742066666666667</v>
       </c>
       <c r="N4">
-        <v>2.70476886205938</v>
+        <v>8.2262</v>
       </c>
       <c r="O4">
-        <v>0.2585234822003783</v>
+        <v>0.1923540942798824</v>
       </c>
       <c r="P4">
-        <v>0.2585234822003783</v>
+        <v>0.1923540942798823</v>
       </c>
       <c r="Q4">
-        <v>28.38839295703597</v>
+        <v>2.399414359911111</v>
       </c>
       <c r="R4">
-        <v>28.38839295703597</v>
+        <v>21.5947292392</v>
       </c>
       <c r="S4">
-        <v>0.1774319164148357</v>
+        <v>0.010202574384666</v>
       </c>
       <c r="T4">
-        <v>0.1774319164148357</v>
+        <v>0.010202574384666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H5">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I5">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J5">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.73267682549077</v>
+        <v>3.888768333333333</v>
       </c>
       <c r="N5">
-        <v>3.73267682549077</v>
+        <v>11.666305</v>
       </c>
       <c r="O5">
-        <v>0.3567715616630545</v>
+        <v>0.2727944290034114</v>
       </c>
       <c r="P5">
-        <v>0.3567715616630545</v>
+        <v>0.2727944290034114</v>
       </c>
       <c r="Q5">
-        <v>1.226355859689211</v>
+        <v>41.29646421436667</v>
       </c>
       <c r="R5">
-        <v>1.226355859689211</v>
+        <v>371.6681779293</v>
       </c>
       <c r="S5">
-        <v>0.007664916810209574</v>
+        <v>0.1755971186178872</v>
       </c>
       <c r="T5">
-        <v>0.007664916810209574</v>
+        <v>0.1755971186178872</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H6">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J6">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.02492639191514</v>
+        <v>7.624472</v>
       </c>
       <c r="N6">
-        <v>4.02492639191514</v>
+        <v>22.873416</v>
       </c>
       <c r="O6">
-        <v>0.3847049561365672</v>
+        <v>0.5348514767167063</v>
       </c>
       <c r="P6">
-        <v>0.3847049561365672</v>
+        <v>0.5348514767167063</v>
       </c>
       <c r="Q6">
-        <v>1.322373271598166</v>
+        <v>80.96747044624</v>
       </c>
       <c r="R6">
-        <v>1.322373271598166</v>
+        <v>728.70723401616</v>
       </c>
       <c r="S6">
-        <v>0.008265040721062234</v>
+        <v>0.3442826106936412</v>
       </c>
       <c r="T6">
-        <v>0.008265040721062234</v>
+        <v>0.3442826106936412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H7">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J7">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.70476886205938</v>
+        <v>2.742066666666667</v>
       </c>
       <c r="N7">
-        <v>2.70476886205938</v>
+        <v>8.2262</v>
       </c>
       <c r="O7">
-        <v>0.2585234822003783</v>
+        <v>0.1923540942798824</v>
       </c>
       <c r="P7">
-        <v>0.2585234822003783</v>
+        <v>0.1923540942798823</v>
       </c>
       <c r="Q7">
-        <v>0.8886408596745639</v>
+        <v>29.11915760133333</v>
       </c>
       <c r="R7">
-        <v>0.8886408596745639</v>
+        <v>262.072418412</v>
       </c>
       <c r="S7">
-        <v>0.005554144997753603</v>
+        <v>0.1238178683974458</v>
       </c>
       <c r="T7">
-        <v>0.005554144997753603</v>
+        <v>0.1238178683974458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.46828698297273</v>
+        <v>0.4029073333333333</v>
       </c>
       <c r="H8">
-        <v>4.46828698297273</v>
+        <v>1.208722</v>
       </c>
       <c r="I8">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="J8">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.73267682549077</v>
+        <v>3.888768333333333</v>
       </c>
       <c r="N8">
-        <v>3.73267682549077</v>
+        <v>11.666305</v>
       </c>
       <c r="O8">
-        <v>0.3567715616630545</v>
+        <v>0.2727944290034114</v>
       </c>
       <c r="P8">
-        <v>0.3567715616630545</v>
+        <v>0.2727944290034114</v>
       </c>
       <c r="Q8">
-        <v>16.67867127098438</v>
+        <v>1.566813279134444</v>
       </c>
       <c r="R8">
-        <v>16.67867127098438</v>
+        <v>14.10131951221</v>
       </c>
       <c r="S8">
-        <v>0.1042443160253058</v>
+        <v>0.006662262798095371</v>
       </c>
       <c r="T8">
-        <v>0.1042443160253058</v>
+        <v>0.006662262798095371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.46828698297273</v>
+        <v>0.4029073333333333</v>
       </c>
       <c r="H9">
-        <v>4.46828698297273</v>
+        <v>1.208722</v>
       </c>
       <c r="I9">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="J9">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.02492639191514</v>
+        <v>7.624472</v>
       </c>
       <c r="N9">
-        <v>4.02492639191514</v>
+        <v>22.873416</v>
       </c>
       <c r="O9">
-        <v>0.3847049561365672</v>
+        <v>0.5348514767167063</v>
       </c>
       <c r="P9">
-        <v>0.3847049561365672</v>
+        <v>0.5348514767167063</v>
       </c>
       <c r="Q9">
-        <v>17.98452620441782</v>
+        <v>3.071955681594666</v>
       </c>
       <c r="R9">
-        <v>17.98452620441782</v>
+        <v>27.64760113435199</v>
       </c>
       <c r="S9">
-        <v>0.1124061145374486</v>
+        <v>0.01306229422959193</v>
       </c>
       <c r="T9">
-        <v>0.1124061145374486</v>
+        <v>0.01306229422959193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4029073333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.208722</v>
+      </c>
+      <c r="I10">
+        <v>0.02442228319117198</v>
+      </c>
+      <c r="J10">
+        <v>0.02442228319117198</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.742066666666667</v>
+      </c>
+      <c r="N10">
+        <v>8.2262</v>
+      </c>
+      <c r="O10">
+        <v>0.1923540942798824</v>
+      </c>
+      <c r="P10">
+        <v>0.1923540942798823</v>
+      </c>
+      <c r="Q10">
+        <v>1.104798768488889</v>
+      </c>
+      <c r="R10">
+        <v>9.943188916399999</v>
+      </c>
+      <c r="S10">
+        <v>0.004697726163484681</v>
+      </c>
+      <c r="T10">
+        <v>0.00469772616348468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H11">
+        <v>13.80049</v>
+      </c>
+      <c r="I11">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J11">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.888768333333333</v>
+      </c>
+      <c r="N11">
+        <v>11.666305</v>
+      </c>
+      <c r="O11">
+        <v>0.2727944290034114</v>
+      </c>
+      <c r="P11">
+        <v>0.2727944290034114</v>
+      </c>
+      <c r="Q11">
+        <v>17.88896949882778</v>
+      </c>
+      <c r="R11">
+        <v>161.00072548945</v>
+      </c>
+      <c r="S11">
+        <v>0.07606587049998859</v>
+      </c>
+      <c r="T11">
+        <v>0.07606587049998857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.46828698297273</v>
-      </c>
-      <c r="H10">
-        <v>4.46828698297273</v>
-      </c>
-      <c r="I10">
-        <v>0.2921878513505434</v>
-      </c>
-      <c r="J10">
-        <v>0.2921878513505434</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.70476886205938</v>
-      </c>
-      <c r="N10">
-        <v>2.70476886205938</v>
-      </c>
-      <c r="O10">
-        <v>0.2585234822003783</v>
-      </c>
-      <c r="P10">
-        <v>0.2585234822003783</v>
-      </c>
-      <c r="Q10">
-        <v>12.08568349828989</v>
-      </c>
-      <c r="R10">
-        <v>12.08568349828989</v>
-      </c>
-      <c r="S10">
-        <v>0.07553742078778898</v>
-      </c>
-      <c r="T10">
-        <v>0.07553742078778898</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H12">
+        <v>13.80049</v>
+      </c>
+      <c r="I12">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J12">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.624472</v>
+      </c>
+      <c r="N12">
+        <v>22.873416</v>
+      </c>
+      <c r="O12">
+        <v>0.5348514767167063</v>
+      </c>
+      <c r="P12">
+        <v>0.5348514767167063</v>
+      </c>
+      <c r="Q12">
+        <v>35.07381653042667</v>
+      </c>
+      <c r="R12">
+        <v>315.66434877384</v>
+      </c>
+      <c r="S12">
+        <v>0.1491377346424911</v>
+      </c>
+      <c r="T12">
+        <v>0.1491377346424911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H13">
+        <v>13.80049</v>
+      </c>
+      <c r="I13">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J13">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.742066666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.2262</v>
+      </c>
+      <c r="O13">
+        <v>0.1923540942798824</v>
+      </c>
+      <c r="P13">
+        <v>0.1923540942798823</v>
+      </c>
+      <c r="Q13">
+        <v>12.61395453755556</v>
+      </c>
+      <c r="R13">
+        <v>113.525590838</v>
+      </c>
+      <c r="S13">
+        <v>0.0536359253342859</v>
+      </c>
+      <c r="T13">
+        <v>0.05363592533428588</v>
       </c>
     </row>
   </sheetData>
